--- a/src/Excel/entregable1/AltaCuentaCTS.xlsx
+++ b/src/Excel/entregable1/AltaCuentaCTS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>usuario</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>7 mar. 2023, 10:09:19</t>
+  </si>
+  <si>
+    <t>AAACT2311189QDXT4</t>
+  </si>
+  <si>
+    <t>21 abr. 2023, 00:40:55</t>
+  </si>
+  <si>
+    <t>21 abr. 2023, 00:41:03</t>
   </si>
 </sst>
 </file>
@@ -541,10 +550,10 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -576,7 +585,7 @@
         <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/AltaCuentaCTS.xlsx
+++ b/src/Excel/entregable1/AltaCuentaCTS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80996724-E549-43E7-A0B3-ECFE64097D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8C6A03-F882-4FEC-936E-BA844E433E82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AltaCuentaCTS" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>usuario</t>
   </si>
@@ -66,9 +66,6 @@
     <t>81791101</t>
   </si>
   <si>
-    <t>CTS Campaign</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -78,40 +75,40 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>AAACT23065N7K30DS</t>
+    <t>New Account</t>
+  </si>
+  <si>
+    <t>Cuenta</t>
+  </si>
+  <si>
+    <t>1010814053</t>
+  </si>
+  <si>
+    <t>AAACT23125H6YB3HP</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>6 mar. 2023, 11:55:14</t>
-  </si>
-  <si>
-    <t>SCIS</t>
-  </si>
-  <si>
-    <t>AAACT2306626WC888</t>
-  </si>
-  <si>
-    <t>7 mar. 2023, 10:09:11</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>7 mar. 2023, 10:09:19</t>
-  </si>
-  <si>
-    <t>AAACT2311189QDXT4</t>
-  </si>
-  <si>
-    <t>21 abr. 2023, 00:40:55</t>
-  </si>
-  <si>
-    <t>21 abr. 2023, 00:41:03</t>
+    <t>5 may. 2023, 10:37:59</t>
+  </si>
+  <si>
+    <t>1010814061</t>
+  </si>
+  <si>
+    <t>AAACT23125DRNLQYG</t>
+  </si>
+  <si>
+    <t>5 may. 2023, 10:42:06</t>
+  </si>
+  <si>
+    <t>1010814077</t>
+  </si>
+  <si>
+    <t>AAACT23125CLT4P9F</t>
+  </si>
+  <si>
+    <t>5 may. 2023, 10:47:27</t>
   </si>
 </sst>
 </file>
@@ -169,7 +166,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -181,13 +178,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -474,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,9 +480,10 @@
     <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="23.54296875" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="19.54296875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.6328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -515,16 +506,19 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>16</v>
+      <c r="K1" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -544,10 +538,10 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
         <v>26</v>
@@ -555,51 +549,22 @@
       <c r="J2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
+      <c r="K2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="PASSED">
-      <formula>NOT(ISERROR(SEARCH("PASSED",J7)))</formula>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="PASSED">
+      <formula>NOT(ISERROR(SEARCH("PASSED",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="PASSED">
-      <formula>NOT(ISERROR(SEARCH("PASSED",A1)))</formula>
-    </cfRule>
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH("FAILED",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="PASSED">
+      <formula>NOT(ISERROR(SEARCH("PASSED",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Excel/entregable1/AltaCuentaCTS.xlsx
+++ b/src/Excel/entregable1/AltaCuentaCTS.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8C6A03-F882-4FEC-936E-BA844E433E82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A52E665-F158-444C-B237-1E4901568462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>usuario</t>
   </si>
@@ -33,9 +33,6 @@
     <t>contraseña</t>
   </si>
   <si>
-    <t>documento</t>
-  </si>
-  <si>
     <t>ejecutivo</t>
   </si>
   <si>
@@ -81,27 +78,9 @@
     <t>Cuenta</t>
   </si>
   <si>
-    <t>1010814053</t>
-  </si>
-  <si>
-    <t>AAACT23125H6YB3HP</t>
-  </si>
-  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>5 may. 2023, 10:37:59</t>
-  </si>
-  <si>
-    <t>1010814061</t>
-  </si>
-  <si>
-    <t>AAACT23125DRNLQYG</t>
-  </si>
-  <si>
-    <t>5 may. 2023, 10:42:06</t>
-  </si>
-  <si>
     <t>1010814077</t>
   </si>
   <si>
@@ -109,13 +88,15 @@
   </si>
   <si>
     <t>5 may. 2023, 10:47:27</t>
+  </si>
+  <si>
+    <t>CodCliente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -467,20 +448,20 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.1796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.36328125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.54296875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="23.54296875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.54296875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.6328125" collapsed="true"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.54296875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -491,66 +472,66 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/AltaCuentaCTS.xlsx
+++ b/src/Excel/entregable1/AltaCuentaCTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A52E665-F158-444C-B237-1E4901568462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7350214B-8828-4AE9-BBFE-599EE6C70773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>ruc</t>
   </si>
   <si>
-    <t>razon</t>
-  </si>
-  <si>
     <t>SCISNEROSA1</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>CodCliente</t>
+  </si>
+  <si>
+    <t>motivoApertura</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -458,7 +458,7 @@
     <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.08984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="23.54296875" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="19.54296875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -472,7 +472,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -484,54 +484,54 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/AltaCuentaCTS.xlsx
+++ b/src/Excel/entregable1/AltaCuentaCTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7350214B-8828-4AE9-BBFE-599EE6C70773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09D7BCC-A028-4899-885B-0AA0BC8D4A3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>usuario</t>
   </si>
@@ -75,22 +75,25 @@
     <t>Cuenta</t>
   </si>
   <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>1010814077</t>
-  </si>
-  <si>
-    <t>AAACT23125CLT4P9F</t>
-  </si>
-  <si>
-    <t>5 may. 2023, 10:47:27</t>
-  </si>
-  <si>
     <t>CodCliente</t>
   </si>
   <si>
     <t>motivoApertura</t>
+  </si>
+  <si>
+    <t>cuenta</t>
+  </si>
+  <si>
+    <t>CTS CLIENTES</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>30 jun. 2023, 14:13:39</t>
   </si>
 </sst>
 </file>
@@ -445,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,12 +462,13 @@
     <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="14.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.54296875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="23.54296875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -472,7 +476,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -484,22 +488,25 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -522,22 +529,25 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J6">
+  <conditionalFormatting sqref="K5">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="PASSED">
-      <formula>NOT(ISERROR(SEARCH("PASSED",J6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PASSED",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">

--- a/src/Excel/entregable1/AltaCuentaCTS.xlsx
+++ b/src/Excel/entregable1/AltaCuentaCTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09D7BCC-A028-4899-885B-0AA0BC8D4A3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0351B93E-10B2-4637-80B4-8B5094234F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>motivoApertura</t>
   </si>
   <si>
-    <t>cuenta</t>
-  </si>
-  <si>
     <t>CTS CLIENTES</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>30 jun. 2023, 14:13:39</t>
+  </si>
+  <si>
+    <t>Tipo de Producto</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -491,7 +491,7 @@
         <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>11</v>
@@ -529,19 +529,19 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/AltaCuentaCTS.xlsx
+++ b/src/Excel/entregable1/AltaCuentaCTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0351B93E-10B2-4637-80B4-8B5094234F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE0EAC5-BEB7-439C-AC4F-0A81371BF7AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>ruc</t>
   </si>
   <si>
-    <t>SCISNEROSA1</t>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>Tipo de Producto</t>
+  </si>
+  <si>
+    <t>jtangt</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,7 +476,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -488,60 +488,60 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/AltaCuentaCTS.xlsx
+++ b/src/Excel/entregable1/AltaCuentaCTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE0EAC5-BEB7-439C-AC4F-0A81371BF7AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F319C59-B985-48E7-994F-F298F8B16A1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>usuario</t>
   </si>
@@ -81,29 +81,77 @@
     <t>CTS CLIENTES</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>30 jun. 2023, 14:13:39</t>
-  </si>
-  <si>
     <t>Tipo de Producto</t>
   </si>
   <si>
     <t>jtangt</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Name1 1791102</t>
+  </si>
+  <si>
+    <t>81791102</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Name1 1791103</t>
+  </si>
+  <si>
+    <t>81791103</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Name1 1791104</t>
+  </si>
+  <si>
+    <t>81791104</t>
+  </si>
+  <si>
+    <t>AAACT232157QWQBL6</t>
+  </si>
+  <si>
+    <t>3 ago. 2023, 19:27:45</t>
+  </si>
+  <si>
+    <t>AAACT232155ZCTWGF</t>
+  </si>
+  <si>
+    <t>3 ago. 2023, 19:29:14</t>
+  </si>
+  <si>
+    <t>1010830075</t>
+  </si>
+  <si>
+    <t>AAACT23215TKWQVR4</t>
+  </si>
+  <si>
+    <t>3 ago. 2023, 19:30:39</t>
+  </si>
+  <si>
+    <t>1010830083</t>
+  </si>
+  <si>
+    <t>AAACT232151WYCDF8</t>
+  </si>
+  <si>
+    <t>3 ago. 2023, 19:31:59</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -448,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -491,7 +539,7 @@
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>10</v>
@@ -508,7 +556,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -532,19 +580,134 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <v>1010830059</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3">
+        <v>1010830067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K5">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH("PASSED",K5)))</formula>
